--- a/ADHA-FHIR-IG-redirects.xlsx
+++ b/ADHA-FHIR-IG-redirects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\git\ci-fhir-r4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\git\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443890ED-73E5-4CAD-B4F5-DB0327FA5016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15CAA72-9A8A-4AAC-9F1D-749BC12CECE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24195" yWindow="1335" windowWidth="21600" windowHeight="14550" activeTab="1" xr2:uid="{809266FD-E24E-4962-B240-F4A51F3B0C12}"/>
+    <workbookView xWindow="750" yWindow="2595" windowWidth="27360" windowHeight="11310" xr2:uid="{809266FD-E24E-4962-B240-F4A51F3B0C12}"/>
   </bookViews>
   <sheets>
     <sheet name="Publication redirects" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t>Australian Digital Health Agency FHIR Implementation Guide v1.0.0</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>https://fhir.digitalhealth.gov.au/dh/StructureDefinition-dh-date-initial-registration-1.html</t>
+  </si>
+  <si>
+    <t>https://fhir.digitalhealth.gov.au/dh/package.tgz</t>
   </si>
 </sst>
 </file>
@@ -659,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11248DB4-03C3-48B9-8F87-76A85990C6DC}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +738,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -762,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E11F45-F549-489C-BCFD-4FA84ACE627B}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ADHA-FHIR-IG-redirects.xlsx
+++ b/ADHA-FHIR-IG-redirects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\git\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\git\ci-fhir-r4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15CAA72-9A8A-4AAC-9F1D-749BC12CECE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DD5D39-171D-4F88-97F8-766A9F4300D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="2595" windowWidth="27360" windowHeight="11310" xr2:uid="{809266FD-E24E-4962-B240-F4A51F3B0C12}"/>
+    <workbookView xWindow="2280" yWindow="500" windowWidth="14400" windowHeight="9140" activeTab="1" xr2:uid="{809266FD-E24E-4962-B240-F4A51F3B0C12}"/>
   </bookViews>
   <sheets>
     <sheet name="Publication redirects" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
   <si>
     <t>Australian Digital Health Agency FHIR Implementation Guide v1.0.0</t>
   </si>
@@ -266,6 +266,27 @@
   </si>
   <si>
     <t>https://fhir.digitalhealth.gov.au/dh/package.tgz</t>
+  </si>
+  <si>
+    <t>https://fhir.digitalhealth.gov.au/R4/dh/1.1.0</t>
+  </si>
+  <si>
+    <t>https://fhir.digitalhealth.gov.au/R4/dh/1.1.0/index.html</t>
+  </si>
+  <si>
+    <t>http://ns.electronichealth.net.au/fhir/ImplementationGuide/au.digitalhealth.r4/1.1.0</t>
+  </si>
+  <si>
+    <t>http://ns.electronichealth.net.au/fhir/StructureDefinition/dh-bundle-payload-1</t>
+  </si>
+  <si>
+    <t>https://fhir.digitalhealth.gov.au/dh/StructureDefinition-dh-bundle-payload-1.html</t>
+  </si>
+  <si>
+    <t>http://ns.electronichealth.net.au/fhir/StructureDefinition/dh-episodeofcare-mygp-1</t>
+  </si>
+  <si>
+    <t>https://fhir.digitalhealth.gov.au/dh/StructureDefinition-dh-episodeofcare-mygp-1.html</t>
   </si>
 </sst>
 </file>
@@ -660,32 +681,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11248DB4-03C3-48B9-8F87-76A85990C6DC}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -693,7 +714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -701,7 +722,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -709,35 +730,43 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -747,48 +776,50 @@
     <hyperlink ref="A6" r:id="rId2" display="https://www.digitalhealth.gov.au/fhir/dh" xr:uid="{AF74B2D9-2DD7-424B-A4E4-6EE4C7BF1A8B}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{0324E2B9-42D2-450D-9FD3-3CC5AF63976E}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{5E9C1EEA-6009-4804-99EA-B79CC633107B}"/>
-    <hyperlink ref="A8" r:id="rId5" xr:uid="{E88A9A33-B676-48D5-9313-DFEABC26F4B3}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{059B1165-12CA-40BB-831C-28EAC94F83FA}"/>
-    <hyperlink ref="A9" r:id="rId7" xr:uid="{C0BF8D9C-E7BD-416A-A9E2-9796265C3369}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{1EA172FF-4608-43DF-8104-52D774F13061}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{46526FE2-5576-4131-8757-89AC156C4F2B}"/>
-    <hyperlink ref="B10" r:id="rId10" xr:uid="{E1572E35-F24B-4DFE-95A8-99E52FC35FD9}"/>
-    <hyperlink ref="A11" r:id="rId11" xr:uid="{AFDF7123-1CD3-4C93-9EDF-57144697825D}"/>
-    <hyperlink ref="B11" r:id="rId12" xr:uid="{AD1D58BC-7C70-4DD4-A2BD-CB0A8F8F0FBD}"/>
+    <hyperlink ref="A9" r:id="rId5" xr:uid="{E88A9A33-B676-48D5-9313-DFEABC26F4B3}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{059B1165-12CA-40BB-831C-28EAC94F83FA}"/>
+    <hyperlink ref="A10" r:id="rId7" xr:uid="{C0BF8D9C-E7BD-416A-A9E2-9796265C3369}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{1EA172FF-4608-43DF-8104-52D774F13061}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{46526FE2-5576-4131-8757-89AC156C4F2B}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{E1572E35-F24B-4DFE-95A8-99E52FC35FD9}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{AFDF7123-1CD3-4C93-9EDF-57144697825D}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{AD1D58BC-7C70-4DD4-A2BD-CB0A8F8F0FBD}"/>
+    <hyperlink ref="A8" r:id="rId13" xr:uid="{6D5A3BA3-CA40-4D21-A32B-4CD6E7C7A733}"/>
+    <hyperlink ref="B8" r:id="rId14" xr:uid="{47501D81-EAC6-4852-A5C6-859781895538}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E11F45-F549-489C-BCFD-4FA84ACE627B}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="98.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="98.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="110" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -796,7 +827,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -804,7 +835,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -812,307 +843,337 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B35">
-    <sortCondition ref="A5:A35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B38">
+    <sortCondition ref="A5:A38"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="A28" r:id="rId1" xr:uid="{E840B0E5-EAAF-4887-AE87-50DA53BED53B}"/>
-    <hyperlink ref="B28" r:id="rId2" xr:uid="{E7A8E763-3DA1-4CEA-B4F0-23C6DC5CA04F}"/>
-    <hyperlink ref="A31" r:id="rId3" xr:uid="{320938A2-2B88-4EE7-9987-78F24B3D30E1}"/>
-    <hyperlink ref="A27" r:id="rId4" xr:uid="{F7D0B3BD-42F3-4003-B29E-A100A22F4B1F}"/>
-    <hyperlink ref="A13" r:id="rId5" xr:uid="{5B2C2D4F-016C-438C-8EAE-97F9DC55FA96}"/>
-    <hyperlink ref="A29" r:id="rId6" xr:uid="{AFF19175-B34A-4A50-946F-570ABF7BC0FA}"/>
-    <hyperlink ref="A34" r:id="rId7" xr:uid="{458956AF-D000-48B5-A9C4-C285DCC6F71B}"/>
-    <hyperlink ref="A19" r:id="rId8" xr:uid="{801B52A9-BD9A-4F06-8CE2-3A7E4B59E10C}"/>
-    <hyperlink ref="A22" r:id="rId9" xr:uid="{12D6E316-3853-4C00-B50A-784802CDA9B2}"/>
-    <hyperlink ref="A12" r:id="rId10" xr:uid="{2D05540F-FA66-41C6-96FB-B22850E5857E}"/>
-    <hyperlink ref="A35" r:id="rId11" xr:uid="{5E1FB437-A2CA-4BE4-A4BC-C03129F1EC58}"/>
-    <hyperlink ref="A14" r:id="rId12" xr:uid="{539AACA0-C473-4D65-BBB9-0E9C1257F46C}"/>
-    <hyperlink ref="A18" r:id="rId13" xr:uid="{DC4C984B-A1B7-4617-9420-37DCAF99BE21}"/>
-    <hyperlink ref="A10" r:id="rId14" xr:uid="{D12D2160-2464-4CBC-A2AE-3A33D638E011}"/>
-    <hyperlink ref="A32" r:id="rId15" xr:uid="{C99E2FCD-0BBA-480C-9E7F-B021D4432675}"/>
-    <hyperlink ref="A26" r:id="rId16" xr:uid="{BC244A09-6FE8-4B84-840F-3ACA00834B8C}"/>
-    <hyperlink ref="A9" r:id="rId17" xr:uid="{669CE5A9-A113-44BE-861F-505E745DA578}"/>
-    <hyperlink ref="A24" r:id="rId18" xr:uid="{419EE660-BF8B-41D0-94D2-F60FFAFC7D2A}"/>
-    <hyperlink ref="A23" r:id="rId19" xr:uid="{7D924CF8-268B-4246-8E34-66F9562F453A}"/>
-    <hyperlink ref="A21" r:id="rId20" xr:uid="{119CF4F0-1AD0-42D7-870F-4D2F7720BCC4}"/>
-    <hyperlink ref="A11" r:id="rId21" xr:uid="{16A0AB23-BEA8-4B2E-B349-2A7BF9B80896}"/>
-    <hyperlink ref="A30" r:id="rId22" xr:uid="{55DB94C9-4D42-4759-94EB-DA9ECC0AFF5D}"/>
-    <hyperlink ref="A33" r:id="rId23" xr:uid="{B6163175-BAA9-4B56-A6F6-DA8A795BF9E0}"/>
-    <hyperlink ref="A17" r:id="rId24" xr:uid="{5BF58EE6-3C9E-4732-8F14-681D9541B82F}"/>
-    <hyperlink ref="A8" r:id="rId25" xr:uid="{EBEBA11F-00B8-4D9E-B27C-F82507D8493E}"/>
-    <hyperlink ref="A25" r:id="rId26" xr:uid="{AC293AF8-D1DE-40CE-9A6E-718C8A97B4D7}"/>
-    <hyperlink ref="A20" r:id="rId27" xr:uid="{D2865CD1-C300-45D8-A531-57DE709E7FB3}"/>
-    <hyperlink ref="A15" r:id="rId28" xr:uid="{13D97BB6-2BED-44C1-A535-1144D71632C9}"/>
-    <hyperlink ref="A16" r:id="rId29" xr:uid="{5CE7364D-2CE2-4DCF-BA4E-079F59FEC2AA}"/>
-    <hyperlink ref="B13" r:id="rId30" xr:uid="{972A5B8C-ED5B-40DE-B0F4-2C6D2665C12C}"/>
-    <hyperlink ref="B29" r:id="rId31" xr:uid="{0672BAFC-E17D-49EA-85F0-C3B79646E799}"/>
-    <hyperlink ref="B31" r:id="rId32" xr:uid="{A83FA529-783C-4FD8-B486-B1E21CCF8B6A}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{82CF9FBD-41B3-4F4A-89D3-24ECF7AB3622}"/>
-    <hyperlink ref="B27" r:id="rId34" xr:uid="{458C760E-F356-4B26-A506-A045987D5F7A}"/>
-    <hyperlink ref="B19" r:id="rId35" xr:uid="{E43563B4-7AF5-42FE-A8B9-7C6C0BEC8334}"/>
-    <hyperlink ref="B22" r:id="rId36" xr:uid="{EC1CCABE-493B-4EDA-AF5A-F6BB4AD685CC}"/>
-    <hyperlink ref="B12" r:id="rId37" xr:uid="{65EB331D-AA01-4DDA-BFE9-37A5ADF364BC}"/>
-    <hyperlink ref="B35" r:id="rId38" xr:uid="{9674C996-5A49-4062-BD96-111B15BE6E11}"/>
-    <hyperlink ref="B14" r:id="rId39" xr:uid="{5F864395-0597-4171-B33E-E58399B99329}"/>
-    <hyperlink ref="B18" r:id="rId40" xr:uid="{826AD813-52D6-42CE-A864-5F9920A6132A}"/>
-    <hyperlink ref="B10" r:id="rId41" xr:uid="{28601605-CB75-44F7-BAC0-2A04AA1AA575}"/>
-    <hyperlink ref="B32" r:id="rId42" xr:uid="{D1915C7D-543F-4E4B-A55D-30A356F5B69E}"/>
-    <hyperlink ref="B26" r:id="rId43" xr:uid="{BDD3004C-DC54-48B6-9608-EA0F8119A22D}"/>
-    <hyperlink ref="B9" r:id="rId44" xr:uid="{C872CE21-143B-47CA-89F8-5B7F13D0CB28}"/>
-    <hyperlink ref="B24" r:id="rId45" xr:uid="{04AD3FAB-D778-455E-B7BA-38E88A45E36B}"/>
-    <hyperlink ref="B23" r:id="rId46" xr:uid="{36D3BEE1-57A7-4A85-B1AA-509B4CA137C0}"/>
-    <hyperlink ref="B21" r:id="rId47" xr:uid="{2D0EE521-FA88-43FC-88F0-31DC22535CCB}"/>
-    <hyperlink ref="B11" r:id="rId48" xr:uid="{E15AE88C-8268-4FAF-AA2E-5B320B03D02B}"/>
-    <hyperlink ref="B30" r:id="rId49" xr:uid="{60F5DEBD-9CBD-4986-9041-F455CC691833}"/>
-    <hyperlink ref="B33" r:id="rId50" xr:uid="{B7696DCE-159F-4192-AD67-CCF2DD1A1A59}"/>
-    <hyperlink ref="B17" r:id="rId51" xr:uid="{DCBA43DB-C3A4-4544-A5F8-F2F0CFE05F29}"/>
-    <hyperlink ref="B8" r:id="rId52" xr:uid="{0BA506EE-3740-4322-96C2-94DFDA9D05FC}"/>
-    <hyperlink ref="B25" r:id="rId53" xr:uid="{847C63DE-F041-4FF3-B3D4-C8B9E6C62B6F}"/>
-    <hyperlink ref="B20" r:id="rId54" xr:uid="{95E4A8CA-7E50-46D4-9F73-BD8B1C179117}"/>
-    <hyperlink ref="B15" r:id="rId55" xr:uid="{E3E15EAB-3AEE-476A-A3B0-BD92AB1547D3}"/>
-    <hyperlink ref="B16" r:id="rId56" xr:uid="{9BC42171-392D-48C3-B8B1-884D3CA76885}"/>
+    <hyperlink ref="A31" r:id="rId1" xr:uid="{E840B0E5-EAAF-4887-AE87-50DA53BED53B}"/>
+    <hyperlink ref="B31" r:id="rId2" xr:uid="{E7A8E763-3DA1-4CEA-B4F0-23C6DC5CA04F}"/>
+    <hyperlink ref="A34" r:id="rId3" xr:uid="{320938A2-2B88-4EE7-9987-78F24B3D30E1}"/>
+    <hyperlink ref="A30" r:id="rId4" xr:uid="{F7D0B3BD-42F3-4003-B29E-A100A22F4B1F}"/>
+    <hyperlink ref="A15" r:id="rId5" xr:uid="{5B2C2D4F-016C-438C-8EAE-97F9DC55FA96}"/>
+    <hyperlink ref="A32" r:id="rId6" xr:uid="{AFF19175-B34A-4A50-946F-570ABF7BC0FA}"/>
+    <hyperlink ref="A37" r:id="rId7" xr:uid="{458956AF-D000-48B5-A9C4-C285DCC6F71B}"/>
+    <hyperlink ref="A22" r:id="rId8" xr:uid="{801B52A9-BD9A-4F06-8CE2-3A7E4B59E10C}"/>
+    <hyperlink ref="A25" r:id="rId9" xr:uid="{12D6E316-3853-4C00-B50A-784802CDA9B2}"/>
+    <hyperlink ref="A14" r:id="rId10" xr:uid="{2D05540F-FA66-41C6-96FB-B22850E5857E}"/>
+    <hyperlink ref="A38" r:id="rId11" xr:uid="{5E1FB437-A2CA-4BE4-A4BC-C03129F1EC58}"/>
+    <hyperlink ref="A16" r:id="rId12" xr:uid="{539AACA0-C473-4D65-BBB9-0E9C1257F46C}"/>
+    <hyperlink ref="A21" r:id="rId13" xr:uid="{DC4C984B-A1B7-4617-9420-37DCAF99BE21}"/>
+    <hyperlink ref="A12" r:id="rId14" xr:uid="{D12D2160-2464-4CBC-A2AE-3A33D638E011}"/>
+    <hyperlink ref="A35" r:id="rId15" xr:uid="{C99E2FCD-0BBA-480C-9E7F-B021D4432675}"/>
+    <hyperlink ref="A29" r:id="rId16" xr:uid="{BC244A09-6FE8-4B84-840F-3ACA00834B8C}"/>
+    <hyperlink ref="A10" r:id="rId17" xr:uid="{669CE5A9-A113-44BE-861F-505E745DA578}"/>
+    <hyperlink ref="A27" r:id="rId18" xr:uid="{419EE660-BF8B-41D0-94D2-F60FFAFC7D2A}"/>
+    <hyperlink ref="A26" r:id="rId19" xr:uid="{7D924CF8-268B-4246-8E34-66F9562F453A}"/>
+    <hyperlink ref="A24" r:id="rId20" xr:uid="{119CF4F0-1AD0-42D7-870F-4D2F7720BCC4}"/>
+    <hyperlink ref="A13" r:id="rId21" xr:uid="{16A0AB23-BEA8-4B2E-B349-2A7BF9B80896}"/>
+    <hyperlink ref="A33" r:id="rId22" xr:uid="{55DB94C9-4D42-4759-94EB-DA9ECC0AFF5D}"/>
+    <hyperlink ref="A36" r:id="rId23" xr:uid="{B6163175-BAA9-4B56-A6F6-DA8A795BF9E0}"/>
+    <hyperlink ref="A20" r:id="rId24" xr:uid="{5BF58EE6-3C9E-4732-8F14-681D9541B82F}"/>
+    <hyperlink ref="A9" r:id="rId25" xr:uid="{EBEBA11F-00B8-4D9E-B27C-F82507D8493E}"/>
+    <hyperlink ref="A28" r:id="rId26" xr:uid="{AC293AF8-D1DE-40CE-9A6E-718C8A97B4D7}"/>
+    <hyperlink ref="A23" r:id="rId27" xr:uid="{D2865CD1-C300-45D8-A531-57DE709E7FB3}"/>
+    <hyperlink ref="A18" r:id="rId28" xr:uid="{13D97BB6-2BED-44C1-A535-1144D71632C9}"/>
+    <hyperlink ref="A19" r:id="rId29" xr:uid="{5CE7364D-2CE2-4DCF-BA4E-079F59FEC2AA}"/>
+    <hyperlink ref="B15" r:id="rId30" xr:uid="{972A5B8C-ED5B-40DE-B0F4-2C6D2665C12C}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{0672BAFC-E17D-49EA-85F0-C3B79646E799}"/>
+    <hyperlink ref="B34" r:id="rId32" xr:uid="{A83FA529-783C-4FD8-B486-B1E21CCF8B6A}"/>
+    <hyperlink ref="B37" r:id="rId33" xr:uid="{82CF9FBD-41B3-4F4A-89D3-24ECF7AB3622}"/>
+    <hyperlink ref="B30" r:id="rId34" xr:uid="{458C760E-F356-4B26-A506-A045987D5F7A}"/>
+    <hyperlink ref="B22" r:id="rId35" xr:uid="{E43563B4-7AF5-42FE-A8B9-7C6C0BEC8334}"/>
+    <hyperlink ref="B25" r:id="rId36" xr:uid="{EC1CCABE-493B-4EDA-AF5A-F6BB4AD685CC}"/>
+    <hyperlink ref="B14" r:id="rId37" xr:uid="{65EB331D-AA01-4DDA-BFE9-37A5ADF364BC}"/>
+    <hyperlink ref="B38" r:id="rId38" xr:uid="{9674C996-5A49-4062-BD96-111B15BE6E11}"/>
+    <hyperlink ref="B16" r:id="rId39" xr:uid="{5F864395-0597-4171-B33E-E58399B99329}"/>
+    <hyperlink ref="B21" r:id="rId40" xr:uid="{826AD813-52D6-42CE-A864-5F9920A6132A}"/>
+    <hyperlink ref="B12" r:id="rId41" xr:uid="{28601605-CB75-44F7-BAC0-2A04AA1AA575}"/>
+    <hyperlink ref="B35" r:id="rId42" xr:uid="{D1915C7D-543F-4E4B-A55D-30A356F5B69E}"/>
+    <hyperlink ref="B29" r:id="rId43" xr:uid="{BDD3004C-DC54-48B6-9608-EA0F8119A22D}"/>
+    <hyperlink ref="B10" r:id="rId44" xr:uid="{C872CE21-143B-47CA-89F8-5B7F13D0CB28}"/>
+    <hyperlink ref="B27" r:id="rId45" xr:uid="{04AD3FAB-D778-455E-B7BA-38E88A45E36B}"/>
+    <hyperlink ref="B26" r:id="rId46" xr:uid="{36D3BEE1-57A7-4A85-B1AA-509B4CA137C0}"/>
+    <hyperlink ref="B24" r:id="rId47" xr:uid="{2D0EE521-FA88-43FC-88F0-31DC22535CCB}"/>
+    <hyperlink ref="B13" r:id="rId48" xr:uid="{E15AE88C-8268-4FAF-AA2E-5B320B03D02B}"/>
+    <hyperlink ref="B33" r:id="rId49" xr:uid="{60F5DEBD-9CBD-4986-9041-F455CC691833}"/>
+    <hyperlink ref="B36" r:id="rId50" xr:uid="{B7696DCE-159F-4192-AD67-CCF2DD1A1A59}"/>
+    <hyperlink ref="B20" r:id="rId51" xr:uid="{DCBA43DB-C3A4-4544-A5F8-F2F0CFE05F29}"/>
+    <hyperlink ref="B9" r:id="rId52" xr:uid="{0BA506EE-3740-4322-96C2-94DFDA9D05FC}"/>
+    <hyperlink ref="B28" r:id="rId53" xr:uid="{847C63DE-F041-4FF3-B3D4-C8B9E6C62B6F}"/>
+    <hyperlink ref="B23" r:id="rId54" xr:uid="{95E4A8CA-7E50-46D4-9F73-BD8B1C179117}"/>
+    <hyperlink ref="B18" r:id="rId55" xr:uid="{E3E15EAB-3AEE-476A-A3B0-BD92AB1547D3}"/>
+    <hyperlink ref="B19" r:id="rId56" xr:uid="{9BC42171-392D-48C3-B8B1-884D3CA76885}"/>
     <hyperlink ref="A6" r:id="rId57" xr:uid="{A163F6AE-90B2-443F-BB19-E70C3D8E82E4}"/>
     <hyperlink ref="A7" r:id="rId58" xr:uid="{A2EA0211-89D0-4DC8-AAD2-AC48EF06015B}"/>
     <hyperlink ref="B6" r:id="rId59" xr:uid="{D9AE9F7E-4E9B-484E-BC91-25955EE47A04}"/>
     <hyperlink ref="B7" r:id="rId60" xr:uid="{3B01A3F3-B23D-4B98-87C0-BCCA21E6B4B1}"/>
-    <hyperlink ref="A36" r:id="rId61" xr:uid="{B0190873-A209-446C-AA40-5A1702938DDB}"/>
-    <hyperlink ref="B36" r:id="rId62" xr:uid="{D120C3D1-E575-4D6A-ACAB-BB819C1E0825}"/>
+    <hyperlink ref="A39" r:id="rId61" xr:uid="{B0190873-A209-446C-AA40-5A1702938DDB}"/>
+    <hyperlink ref="B39" r:id="rId62" xr:uid="{D120C3D1-E575-4D6A-ACAB-BB819C1E0825}"/>
+    <hyperlink ref="A8" r:id="rId63" xr:uid="{BBB69443-9D3C-4F69-9DF1-B437D724D55A}"/>
+    <hyperlink ref="B8" r:id="rId64" xr:uid="{B02A9BB5-8D84-4446-B6E8-96E1C9A5133E}"/>
+    <hyperlink ref="A11" r:id="rId65" xr:uid="{5123EE9F-859E-49A6-B733-05A094A05A71}"/>
+    <hyperlink ref="B11" r:id="rId66" xr:uid="{2E3F6000-AB8C-43C3-8643-FDC573B90C16}"/>
+    <hyperlink ref="A17" r:id="rId67" xr:uid="{2F426725-4867-457A-BF55-22928E2A7683}"/>
+    <hyperlink ref="B17" r:id="rId68" xr:uid="{7AD37B98-8D0D-4C45-B401-90BB07580884}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId63"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId69"/>
 </worksheet>
 </file>
--- a/ADHA-FHIR-IG-redirects.xlsx
+++ b/ADHA-FHIR-IG-redirects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\git\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\git\ci-fhir-r4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15CAA72-9A8A-4AAC-9F1D-749BC12CECE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8B8844-D142-4A19-9DC0-4DBB2DF56FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="2595" windowWidth="27360" windowHeight="11310" xr2:uid="{809266FD-E24E-4962-B240-F4A51F3B0C12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{809266FD-E24E-4962-B240-F4A51F3B0C12}"/>
   </bookViews>
   <sheets>
     <sheet name="Publication redirects" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>Australian Digital Health Agency FHIR Implementation Guide v1.0.0</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>https://fhir.digitalhealth.gov.au/dh/package.tgz</t>
+  </si>
+  <si>
+    <t>http://ns.electronichealth.net.au/fhir/history.html</t>
+  </si>
+  <si>
+    <t>https://fhir.digitalhealth.gov.au/dh/history.html</t>
   </si>
 </sst>
 </file>
@@ -660,16 +666,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11248DB4-03C3-48B9-8F87-76A85990C6DC}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -739,6 +745,14 @@
       </c>
       <c r="B11" s="2" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -755,9 +769,11 @@
     <hyperlink ref="B10" r:id="rId10" xr:uid="{E1572E35-F24B-4DFE-95A8-99E52FC35FD9}"/>
     <hyperlink ref="A11" r:id="rId11" xr:uid="{AFDF7123-1CD3-4C93-9EDF-57144697825D}"/>
     <hyperlink ref="B11" r:id="rId12" xr:uid="{AD1D58BC-7C70-4DD4-A2BD-CB0A8F8F0FBD}"/>
+    <hyperlink ref="A12" r:id="rId13" xr:uid="{3C82DAEA-5345-4596-A2D3-12336C269DB2}"/>
+    <hyperlink ref="B12" r:id="rId14" xr:uid="{0DE2AA09-53C0-4729-BAB3-BCCB19156531}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
